--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Location.meta.profile:sas-appointment</t>
+  </si>
+  <si>
+    <t>sas-appointment</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-appointment</t>
   </si>
   <si>
     <t>Location.meta.security</t>
@@ -1861,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1872,7 +1881,7 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3106,9 +3115,11 @@
         <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3129,16 +3140,16 @@
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3149,7 +3160,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -3164,13 +3175,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -3188,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3211,10 +3222,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3237,16 +3248,16 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3272,13 +3283,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3296,7 +3307,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3319,10 +3330,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3333,28 +3344,28 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3380,13 +3391,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3404,13 +3415,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
@@ -3427,10 +3438,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3447,22 +3458,22 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3488,13 +3499,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3512,7 +3523,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3535,14 +3546,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3561,16 +3572,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3596,13 +3607,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3620,7 +3631,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3635,7 +3646,7 @@
         <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3643,21 +3654,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3669,16 +3680,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3728,22 +3739,22 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3751,14 +3762,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3777,15 +3788,17 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3822,17 +3835,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3844,10 +3859,10 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3855,14 +3870,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3871,7 +3884,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3883,13 +3896,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3928,19 +3941,17 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3949,7 +3960,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>112</v>
@@ -3963,46 +3974,44 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
@@ -4050,7 +4059,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4059,13 +4068,13 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -4073,14 +4082,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4093,23 +4102,25 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4158,7 +4169,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4170,21 +4181,21 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4195,7 +4206,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4204,19 +4215,21 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4264,44 +4277,44 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4313,17 +4326,15 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4360,31 +4371,31 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>101</v>
@@ -4395,46 +4406,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4458,46 +4467,46 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4505,10 +4514,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4516,7 +4525,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>83</v>
@@ -4525,25 +4534,25 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4568,11 +4577,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4590,7 +4601,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4605,7 +4616,7 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4613,10 +4624,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4639,19 +4650,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4664,7 +4675,7 @@
         <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>74</v>
@@ -4676,13 +4687,11 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4700,7 +4709,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4715,7 +4724,7 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4723,10 +4732,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4749,18 +4758,20 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4772,7 +4783,7 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>74</v>
@@ -4808,7 +4819,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4823,7 +4834,7 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4831,10 +4842,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4842,7 +4853,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -4857,15 +4868,17 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4878,7 +4891,7 @@
         <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>74</v>
@@ -4914,7 +4927,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4929,7 +4942,7 @@
         <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4937,10 +4950,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4963,17 +4976,15 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5022,7 +5033,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5037,7 +5048,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5045,10 +5056,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5065,21 +5076,23 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5104,13 +5117,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5128,7 +5141,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5143,18 +5156,18 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5171,19 +5184,19 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5210,13 +5223,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5234,7 +5247,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5249,18 +5262,18 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5283,17 +5296,15 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5318,13 +5329,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5342,7 +5353,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5357,18 +5368,18 @@
         <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5379,7 +5390,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5388,23 +5399,21 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5452,13 +5461,13 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
@@ -5467,7 +5476,7 @@
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5475,10 +5484,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5489,7 +5498,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5498,20 +5507,22 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5560,13 +5571,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5575,7 +5586,7 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5583,10 +5594,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5609,19 +5620,17 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5646,13 +5655,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5670,7 +5679,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5685,18 +5694,18 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5719,16 +5728,20 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5752,11 +5765,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5774,13 +5789,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5789,18 +5804,18 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5811,7 +5826,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5820,16 +5835,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5856,13 +5871,11 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5880,7 +5893,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5889,24 +5902,24 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5914,10 +5927,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5929,20 +5942,16 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5990,22 +5999,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6013,10 +6022,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6024,7 +6033,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>83</v>
@@ -6039,16 +6048,20 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6096,7 +6109,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6105,13 +6118,13 @@
         <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6119,21 +6132,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6145,17 +6158,15 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6192,31 +6203,31 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>101</v>
@@ -6227,23 +6238,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6255,15 +6264,17 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6300,16 +6311,16 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>111</v>
@@ -6327,7 +6338,7 @@
         <v>112</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6335,12 +6346,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6355,13 +6368,13 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>317</v>
@@ -6369,12 +6382,8 @@
       <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6386,7 +6395,7 @@
         <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>74</v>
@@ -6398,13 +6407,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6422,22 +6431,22 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6445,10 +6454,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6465,24 +6474,26 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6494,7 +6505,7 @@
         <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>74</v>
@@ -6506,13 +6517,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6530,7 +6541,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6545,7 +6556,7 @@
         <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6553,10 +6564,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6579,20 +6590,18 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6604,7 +6613,7 @@
         <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>74</v>
@@ -6616,13 +6625,13 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6640,7 +6649,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6655,7 +6664,7 @@
         <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6663,10 +6672,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6674,7 +6683,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>83</v>
@@ -6692,13 +6701,17 @@
         <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6710,7 +6723,7 @@
         <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>74</v>
@@ -6722,10 +6735,10 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6746,13 +6759,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
@@ -6761,7 +6774,7 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6769,14 +6782,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6798,10 +6811,10 @@
         <v>97</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6816,7 +6829,7 @@
         <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>74</v>
@@ -6828,10 +6841,10 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6852,13 +6865,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
@@ -6867,7 +6880,7 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6875,18 +6888,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>83</v>
@@ -6904,14 +6917,12 @@
         <v>97</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6924,7 +6935,7 @@
         <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>74</v>
@@ -6936,10 +6947,10 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6960,7 +6971,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6975,7 +6986,7 @@
         <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6983,14 +6994,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7012,12 +7023,14 @@
         <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7030,7 +7043,7 @@
         <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>74</v>
@@ -7066,7 +7079,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7081,7 +7094,7 @@
         <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7089,18 +7102,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>83</v>
@@ -7118,10 +7131,10 @@
         <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7136,7 +7149,7 @@
         <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>74</v>
@@ -7148,10 +7161,10 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7172,7 +7185,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7187,7 +7200,7 @@
         <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7195,18 +7208,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>83</v>
@@ -7224,14 +7237,12 @@
         <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7244,7 +7255,7 @@
         <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>74</v>
@@ -7256,10 +7267,10 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -7280,7 +7291,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7295,7 +7306,7 @@
         <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7303,10 +7314,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7329,18 +7340,18 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7352,7 +7363,7 @@
         <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>74</v>
@@ -7388,7 +7399,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7403,7 +7414,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7411,10 +7422,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7437,17 +7448,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7460,7 +7471,7 @@
         <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>74</v>
@@ -7472,11 +7483,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7494,7 +7507,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7509,18 +7522,18 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7540,20 +7553,20 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7578,13 +7591,11 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7602,7 +7613,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7617,18 +7628,18 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7651,16 +7662,18 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>98</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7708,7 +7721,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>100</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7720,10 +7733,10 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7731,21 +7744,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7757,17 +7770,15 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7816,19 +7827,19 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>101</v>
@@ -7839,14 +7850,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>407</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7859,26 +7870,24 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>408</v>
+        <v>105</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>409</v>
+        <v>106</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7926,7 +7935,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7941,7 +7950,7 @@
         <v>112</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7949,42 +7958,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8032,22 +8045,22 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>415</v>
+        <v>189</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8055,10 +8068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8081,13 +8094,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8138,7 +8151,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -8153,7 +8166,7 @@
         <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8172,7 +8185,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>83</v>
@@ -8187,7 +8200,7 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>420</v>
@@ -8247,7 +8260,7 @@
         <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>83</v>
@@ -8259,7 +8272,7 @@
         <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8290,10 +8303,10 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>250</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>423</v>
@@ -8301,12 +8314,8 @@
       <c r="M60" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8369,7 +8378,7 @@
         <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8377,10 +8386,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8400,20 +8409,22 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8462,7 +8473,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8477,7 +8488,7 @@
         <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8485,10 +8496,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8511,16 +8522,18 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>97</v>
+        <v>432</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>98</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>99</v>
+        <v>434</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8568,7 +8581,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8580,10 +8593,10 @@
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>101</v>
+        <v>436</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8591,21 +8604,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8617,17 +8630,15 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -8664,31 +8675,31 @@
         <v>74</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>101</v>
@@ -8699,23 +8710,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8727,15 +8736,17 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>105</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8772,16 +8783,16 @@
         <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>111</v>
@@ -8799,7 +8810,7 @@
         <v>112</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8807,12 +8818,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8830,10 +8843,10 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>442</v>
@@ -8841,9 +8854,7 @@
       <c r="M65" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -8892,22 +8903,22 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8915,10 +8926,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8941,16 +8952,16 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8976,13 +8987,13 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>451</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9000,7 +9011,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9009,13 +9020,13 @@
         <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>74</v>
+        <v>449</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9023,10 +9034,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9049,16 +9060,16 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9084,13 +9095,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>74</v>
+        <v>454</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>74</v>
+        <v>455</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9108,7 +9119,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9123,7 +9134,7 @@
         <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>459</v>
+        <v>189</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9131,10 +9142,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9157,16 +9168,16 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9216,7 +9227,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9231,7 +9242,7 @@
         <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9239,10 +9250,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9253,7 +9264,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9262,19 +9273,19 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>399</v>
+        <v>97</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9324,13 +9335,13 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
@@ -9339,7 +9350,7 @@
         <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>469</v>
+        <v>189</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9347,10 +9358,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9361,7 +9372,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9373,15 +9384,17 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9430,22 +9443,22 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>100</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>101</v>
+        <v>472</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9453,21 +9466,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9479,17 +9492,15 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9538,19 +9549,19 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>101</v>
@@ -9561,14 +9572,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>407</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9581,26 +9592,24 @@
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>408</v>
+        <v>105</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>409</v>
+        <v>106</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
       </c>
@@ -9648,7 +9657,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9663,7 +9672,7 @@
         <v>112</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -9671,14 +9680,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9691,22 +9700,26 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
@@ -9730,13 +9743,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -9754,7 +9767,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9766,10 +9779,10 @@
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>469</v>
+        <v>189</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9777,10 +9790,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9791,7 +9804,7 @@
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -9803,13 +9816,13 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>479</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9836,13 +9849,13 @@
         <v>74</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -9860,13 +9873,13 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
@@ -9875,7 +9888,7 @@
         <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -9883,10 +9896,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9909,13 +9922,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9966,7 +9979,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -9981,7 +9994,7 @@
         <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
@@ -9989,10 +10002,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10015,7 +10028,7 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>487</v>
@@ -10072,7 +10085,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10087,7 +10100,7 @@
         <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10121,7 +10134,7 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>97</v>
+        <v>486</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>490</v>
@@ -10193,7 +10206,7 @@
         <v>95</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>101</v>
+        <v>472</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
@@ -10215,7 +10228,7 @@
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10227,18 +10240,16 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10292,7 +10303,7 @@
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
@@ -10304,6 +10315,114 @@
         <v>101</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,13 +450,10 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>Location.meta.profile:sas-appointment</t>
-  </si>
-  <si>
-    <t>sas-appointment</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-appointment</t>
+    <t>Location.meta.profile:sas-location-aggregator</t>
+  </si>
+  <si>
+    <t>sas-location-aggregator</t>
   </si>
   <si>
     <t>Location.meta.security</t>
@@ -1879,9 +1876,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3160,7 +3157,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -3222,10 +3219,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3248,16 +3245,16 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3283,31 +3280,31 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3330,10 +3327,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3356,16 +3353,16 @@
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3391,31 +3388,31 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3438,10 +3435,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3467,13 +3464,13 @@
         <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3523,7 +3520,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3546,10 +3543,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3572,16 +3569,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3607,31 +3604,31 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3654,14 +3651,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3680,16 +3677,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3739,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3754,7 +3751,7 @@
         <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3762,14 +3759,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3788,16 +3785,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3847,7 +3844,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3862,7 +3859,7 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3870,10 +3867,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3899,10 +3896,10 @@
         <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3951,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3974,13 +3971,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>74</v>
@@ -4002,13 +3999,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4059,7 +4056,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4068,7 +4065,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>112</v>
@@ -4082,10 +4079,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4111,16 +4108,16 @@
         <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>107</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4169,7 +4166,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4184,7 +4181,7 @@
         <v>112</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4192,10 +4189,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4218,17 +4215,17 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4277,7 +4274,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4292,18 +4289,18 @@
         <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4406,10 +4403,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4514,10 +4511,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4540,19 +4537,19 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4577,31 +4574,31 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4616,7 +4613,7 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4624,10 +4621,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4650,19 +4647,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4687,29 +4684,29 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4724,7 +4721,7 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4732,10 +4729,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4761,16 +4758,16 @@
         <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4783,43 +4780,43 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4834,7 +4831,7 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4842,10 +4839,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4871,13 +4868,13 @@
         <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4891,43 +4888,43 @@
         <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4942,7 +4939,7 @@
         <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4950,10 +4947,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4976,13 +4973,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5033,7 +5030,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5048,7 +5045,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5056,10 +5053,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5082,16 +5079,16 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5141,7 +5138,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5156,7 +5153,7 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5164,10 +5161,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5190,13 +5187,13 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5223,14 +5220,14 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5247,7 +5244,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5262,18 +5259,18 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5296,13 +5293,13 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5329,14 +5326,14 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5353,7 +5350,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5371,15 +5368,15 @@
         <v>101</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5405,13 +5402,13 @@
         <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5461,7 +5458,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5476,7 +5473,7 @@
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5484,10 +5481,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5513,16 +5510,16 @@
         <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5571,7 +5568,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5586,7 +5583,7 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5594,10 +5591,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5623,14 +5620,14 @@
         <v>97</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5679,7 +5676,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5694,7 +5691,7 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5702,10 +5699,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5728,19 +5725,19 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5765,13 +5762,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5789,7 +5786,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5804,18 +5801,18 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5838,13 +5835,13 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5871,11 +5868,11 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5893,7 +5890,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5908,18 +5905,18 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5942,13 +5939,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5999,7 +5996,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6008,13 +6005,13 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6022,10 +6019,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6048,19 +6045,19 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6109,7 +6106,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6118,13 +6115,13 @@
         <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6132,10 +6129,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6238,10 +6235,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6346,13 +6343,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
@@ -6374,13 +6371,13 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6454,10 +6451,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6480,19 +6477,19 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6505,43 +6502,43 @@
         <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6556,7 +6553,7 @@
         <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6564,10 +6561,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6590,16 +6587,16 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6613,43 +6610,43 @@
         <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6664,7 +6661,7 @@
         <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6672,10 +6669,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6701,16 +6698,16 @@
         <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6723,43 +6720,43 @@
         <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6774,7 +6771,7 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6782,10 +6779,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6811,10 +6808,10 @@
         <v>97</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6829,43 +6826,43 @@
         <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6880,7 +6877,7 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6888,14 +6885,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6917,10 +6914,10 @@
         <v>97</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6935,43 +6932,43 @@
         <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6986,7 +6983,7 @@
         <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6994,14 +6991,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7023,13 +7020,13 @@
         <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7043,43 +7040,43 @@
         <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7094,7 +7091,7 @@
         <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7102,14 +7099,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7131,10 +7128,10 @@
         <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7185,7 +7182,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7200,7 +7197,7 @@
         <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7208,14 +7205,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7237,10 +7234,10 @@
         <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7255,43 +7252,43 @@
         <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="U50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7306,7 +7303,7 @@
         <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7314,10 +7311,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7343,13 +7340,13 @@
         <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7399,7 +7396,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7414,7 +7411,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7422,10 +7419,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7448,17 +7445,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7471,43 +7468,43 @@
         <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7522,7 +7519,7 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7530,10 +7527,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7556,17 +7553,17 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7591,11 +7588,11 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7613,7 +7610,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7628,18 +7625,18 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7662,17 +7659,17 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7721,7 +7718,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7736,7 +7733,7 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7744,10 +7741,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7850,10 +7847,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7958,14 +7955,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7987,16 +7984,16 @@
         <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>107</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8045,7 +8042,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8060,7 +8057,7 @@
         <v>112</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8068,10 +8065,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8094,13 +8091,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8151,7 +8148,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -8166,7 +8163,7 @@
         <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8174,10 +8171,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8200,13 +8197,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8257,7 +8254,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
@@ -8272,7 +8269,7 @@
         <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8280,10 +8277,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8306,13 +8303,13 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8363,7 +8360,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8378,7 +8375,7 @@
         <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8386,10 +8383,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8412,19 +8409,19 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8473,7 +8470,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8488,7 +8485,7 @@
         <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8496,10 +8493,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8522,17 +8519,17 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8581,7 +8578,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8596,7 +8593,7 @@
         <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8604,10 +8601,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8710,10 +8707,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8818,13 +8815,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
@@ -8846,13 +8843,13 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8926,10 +8923,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8955,13 +8952,13 @@
         <v>97</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9011,22 +9008,22 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9034,10 +9031,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9063,13 +9060,13 @@
         <v>125</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9095,31 +9092,31 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9134,7 +9131,7 @@
         <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9142,10 +9139,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9168,16 +9165,16 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9227,7 +9224,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9242,7 +9239,7 @@
         <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9250,10 +9247,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9279,13 +9276,13 @@
         <v>97</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9335,7 +9332,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9350,7 +9347,7 @@
         <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9358,10 +9355,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9384,16 +9381,16 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9443,7 +9440,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9458,7 +9455,7 @@
         <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9466,10 +9463,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9572,10 +9569,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9680,14 +9677,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9709,16 +9706,16 @@
         <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -9767,7 +9764,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9782,7 +9779,7 @@
         <v>112</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9790,10 +9787,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9816,13 +9813,13 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9849,14 +9846,14 @@
         <v>74</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9873,7 +9870,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -9888,7 +9885,7 @@
         <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -9896,10 +9893,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9922,13 +9919,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9979,7 +9976,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -9994,7 +9991,7 @@
         <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
@@ -10002,10 +9999,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10028,13 +10025,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10085,7 +10082,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10100,7 +10097,7 @@
         <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10108,10 +10105,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10134,13 +10131,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10191,7 +10188,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10206,7 +10203,7 @@
         <v>95</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
@@ -10214,10 +10211,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10243,10 +10240,10 @@
         <v>97</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10297,7 +10294,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10320,10 +10317,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10346,17 +10343,17 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10405,7 +10402,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Location, dérivé de FrLocation, pour le service d'agrégation de créneaux de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
+    <t>Profil de Location, dérivé de FrLocation, pour le service d'agrégation de créneaux de la plateforme SAS [Commun cas d'usage PS Indiv et CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
